--- a/datos_sigmoid_verifbounds_target1_tolper5_mix.xlsx
+++ b/datos_sigmoid_verifbounds_target1_tolper5_mix.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,10 +429,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0.005872106552124024</v>
+        <v>0.006489467620849609</v>
       </c>
       <c r="D1" t="n">
-        <v>64.03955590724945</v>
+        <v>3.201637268066406</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>79.96894</v>
+        <v>87.94257999999999</v>
       </c>
       <c r="H1" t="n">
-        <v>53.20844999999999</v>
+        <v>53.35868000000001</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -469,13 +469,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005307722091674805</v>
+        <v>0.005924415588378906</v>
       </c>
       <c r="D2" t="n">
-        <v>3.473492670059204</v>
+        <v>3.394638729095459</v>
       </c>
       <c r="E2" t="n">
-        <v>71.16509940624238</v>
+        <v>63.85386965274811</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>78.38548</v>
+        <v>86.19418</v>
       </c>
       <c r="H2" t="n">
-        <v>18.681</v>
+        <v>18.80348</v>
       </c>
       <c r="I2" t="n">
-        <v>50.154</v>
+        <v>50.22268</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -505,28 +505,28 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005126190185546875</v>
+        <v>0.005874061584472656</v>
       </c>
       <c r="D3" t="n">
-        <v>3.428717708587647</v>
+        <v>4.269686937332153</v>
       </c>
       <c r="E3" t="n">
-        <v>15.19825224876404</v>
+        <v>13.03457360267639</v>
       </c>
       <c r="F3" t="n">
-        <v>344.9767263174057</v>
+        <v>80.73713803291321</v>
       </c>
       <c r="G3" t="n">
-        <v>64.97112</v>
+        <v>71.42283999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>11.89162</v>
+        <v>12.46652</v>
       </c>
       <c r="I3" t="n">
-        <v>12.51036</v>
+        <v>13.00044</v>
       </c>
       <c r="J3" t="n">
-        <v>41.09645</v>
+        <v>40.34706</v>
       </c>
     </row>
     <row r="4">
@@ -537,10 +537,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005304980278015137</v>
+        <v>0.005827522277832032</v>
       </c>
       <c r="D4" t="n">
-        <v>226.7128117322922</v>
+        <v>188.0628438472748</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.09824</v>
+        <v>3.40385</v>
       </c>
       <c r="H4" t="n">
-        <v>2.85772</v>
+        <v>3.198440000000001</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005435943603515625</v>
+        <v>0.005795884132385254</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05003547668457031</v>
+        <v>6.14648745059967</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02717952728271484</v>
+        <v>42.06009049415589</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,50 +591,18 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>62.83843</v>
+        <v>69.07653999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>-2e+20</v>
+        <v>10.67715</v>
       </c>
       <c r="I5" t="n">
-        <v>-2e+20</v>
+        <v>26.40813</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.00551767349243164</v>
-      </c>
-      <c r="D6" t="n">
-        <v>114.7537669420242</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1168.472611045837</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1200.001920008659</v>
-      </c>
-      <c r="G6" t="n">
-        <v>67.24501000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20.47933</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23.44997</v>
-      </c>
-      <c r="J6" t="n">
-        <v>59.42037000000001</v>
       </c>
     </row>
   </sheetData>

--- a/datos_sigmoid_verifbounds_target1_tolper5_mix.xlsx
+++ b/datos_sigmoid_verifbounds_target1_tolper5_mix.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,6 +605,38 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00594484806060791</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.97698802947998</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1049.121582341194</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1200.001475477219</v>
+      </c>
+      <c r="G6" t="n">
+        <v>73.92535000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>21.34698</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24.46756</v>
+      </c>
+      <c r="J6" t="n">
+        <v>59.04930999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
